--- a/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
+++ b/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2171,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
@@ -2198,6 +2198,7 @@
       <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
+      <c r="F1" s="0"/>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2213,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>150000.0</v>
+        <v>250000.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
